--- a/Code/Results/Cases/Case_0_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_242/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.46858760632722</v>
+        <v>4.677597353611008</v>
       </c>
       <c r="D2">
-        <v>11.40050779039018</v>
+        <v>7.68875235114345</v>
       </c>
       <c r="E2">
-        <v>16.21439819367565</v>
+        <v>10.16783314414728</v>
       </c>
       <c r="F2">
-        <v>75.56368953963008</v>
+        <v>45.73989080449947</v>
       </c>
       <c r="G2">
-        <v>1.834942777376762</v>
+        <v>3.612113617510611</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>56.50298770602337</v>
+        <v>35.36832391276145</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>47.05269707022965</v>
+        <v>28.01105371695652</v>
       </c>
       <c r="N2">
-        <v>16.27046147666379</v>
+        <v>16.42988545052622</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.852105420358042</v>
+        <v>4.606229772817682</v>
       </c>
       <c r="D3">
-        <v>10.33038090952119</v>
+        <v>7.524750119889177</v>
       </c>
       <c r="E3">
-        <v>15.16869652765334</v>
+        <v>9.713450916160024</v>
       </c>
       <c r="F3">
-        <v>68.78427380035849</v>
+        <v>44.14010454934889</v>
       </c>
       <c r="G3">
-        <v>1.874160040495283</v>
+        <v>3.621599735080276</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>51.40266658113872</v>
+        <v>34.28672471946753</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>43.25981657651685</v>
+        <v>26.85581400791083</v>
       </c>
       <c r="N3">
-        <v>15.76263927424777</v>
+        <v>16.27876040176692</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.478490198543866</v>
+        <v>4.564646591805882</v>
       </c>
       <c r="D4">
-        <v>9.680436634271985</v>
+        <v>7.426791516403399</v>
       </c>
       <c r="E4">
-        <v>14.507416595942</v>
+        <v>9.422364095997354</v>
       </c>
       <c r="F4">
-        <v>64.65718101733763</v>
+        <v>43.15394514143656</v>
       </c>
       <c r="G4">
-        <v>1.897263324040689</v>
+        <v>3.627686561525118</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>48.29426081821833</v>
+        <v>33.62488773166671</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>40.89427717272549</v>
+        <v>26.12835585874916</v>
       </c>
       <c r="N4">
-        <v>15.44497295616361</v>
+        <v>16.18766417315888</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.326378537858857</v>
+        <v>4.548277473316952</v>
       </c>
       <c r="D5">
-        <v>9.415520964568426</v>
+        <v>7.387612249035424</v>
       </c>
       <c r="E5">
-        <v>14.23234604142208</v>
+        <v>9.300817655920302</v>
       </c>
       <c r="F5">
-        <v>62.97387334605459</v>
+        <v>42.75178906880644</v>
       </c>
       <c r="G5">
-        <v>1.906523366544957</v>
+        <v>3.63023350432347</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>47.02549306913883</v>
+        <v>33.35619714780157</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>39.9166366866518</v>
+        <v>25.82779227178067</v>
       </c>
       <c r="N5">
-        <v>15.31432429514305</v>
+        <v>16.15100552222113</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.301103058589223</v>
+        <v>4.545594573661609</v>
       </c>
       <c r="D6">
-        <v>9.371484753852553</v>
+        <v>7.381152684156343</v>
       </c>
       <c r="E6">
-        <v>14.18631664096156</v>
+        <v>9.280461938983663</v>
       </c>
       <c r="F6">
-        <v>62.69402941190984</v>
+        <v>42.6850149334709</v>
       </c>
       <c r="G6">
-        <v>1.908053791311206</v>
+        <v>3.630660455359008</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>46.81450536597615</v>
+        <v>33.31165575458866</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>39.75336946583906</v>
+        <v>25.77764910394347</v>
       </c>
       <c r="N6">
-        <v>15.29256560668024</v>
+        <v>16.14494747966462</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.476439408504471</v>
+        <v>4.564423481482605</v>
       </c>
       <c r="D7">
-        <v>9.676866158895791</v>
+        <v>7.426260070411374</v>
       </c>
       <c r="E7">
-        <v>14.50373031947373</v>
+        <v>9.420736561274188</v>
       </c>
       <c r="F7">
-        <v>64.63449667567247</v>
+        <v>43.14852174825934</v>
       </c>
       <c r="G7">
-        <v>1.89738873467609</v>
+        <v>3.627720640457432</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>48.27716677747915</v>
+        <v>33.62125937568173</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40.88115260810105</v>
+        <v>26.12431840657526</v>
       </c>
       <c r="N7">
-        <v>15.44321547882584</v>
+        <v>16.18716785466085</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.254224607196305</v>
+        <v>4.65253446241748</v>
       </c>
       <c r="D8">
-        <v>11.02873036102443</v>
+        <v>7.631666767706018</v>
       </c>
       <c r="E8">
-        <v>15.85725044371347</v>
+        <v>10.01373596848045</v>
       </c>
       <c r="F8">
-        <v>73.21128157865235</v>
+        <v>45.18948965783453</v>
       </c>
       <c r="G8">
-        <v>1.848732308523586</v>
+        <v>3.615330322932271</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>54.73390206140911</v>
+        <v>34.99517734597456</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>45.74937111818171</v>
+        <v>27.6167405737726</v>
       </c>
       <c r="N8">
-        <v>16.09675624295915</v>
+        <v>16.37744837869434</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.89962337747774</v>
+        <v>4.842373772579069</v>
       </c>
       <c r="D9">
-        <v>13.87355166916657</v>
+        <v>8.053916007398456</v>
       </c>
       <c r="E9">
-        <v>18.4247260111507</v>
+        <v>11.07643539354131</v>
       </c>
       <c r="F9">
-        <v>91.09790521680793</v>
+        <v>49.13320506520541</v>
       </c>
       <c r="G9">
-        <v>1.738838575246759</v>
+        <v>3.593088814300747</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>68.17291675781519</v>
+        <v>37.68904866262506</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>55.33112254678698</v>
+        <v>30.3826287433234</v>
       </c>
       <c r="N9">
-        <v>17.31655297515289</v>
+        <v>16.76236906561652</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.440506255637006</v>
+        <v>4.991225119916773</v>
       </c>
       <c r="D10">
-        <v>16.51949091742055</v>
+        <v>8.372927113883595</v>
       </c>
       <c r="E10">
-        <v>20.49953249773407</v>
+        <v>11.79153120623808</v>
       </c>
       <c r="F10">
-        <v>107.404693406701</v>
+        <v>51.9614733099279</v>
       </c>
       <c r="G10">
-        <v>1.627878428548657</v>
+        <v>3.577965110024991</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.41258390823072</v>
+        <v>39.64524019996906</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>63.42109020194391</v>
+        <v>32.29756000234283</v>
       </c>
       <c r="N10">
-        <v>18.13576523750888</v>
+        <v>17.05010170269012</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.46844465196552</v>
+        <v>5.060742400457632</v>
       </c>
       <c r="D11">
-        <v>18.27468538781774</v>
+        <v>8.519327628435162</v>
       </c>
       <c r="E11">
-        <v>21.75515248325038</v>
+        <v>12.1018663754181</v>
       </c>
       <c r="F11">
-        <v>117.9725950654184</v>
+        <v>53.22714554536449</v>
       </c>
       <c r="G11">
-        <v>1.549884116236423</v>
+        <v>3.571341210393261</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>88.34550896707711</v>
+        <v>40.52594764776929</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>68.33012954226808</v>
+        <v>33.14009970385589</v>
       </c>
       <c r="N11">
-        <v>18.45440024408321</v>
+        <v>17.18159172904657</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.05996376867422</v>
+        <v>5.087305902042242</v>
       </c>
       <c r="D12">
-        <v>19.28072913399888</v>
+        <v>8.574899501854432</v>
       </c>
       <c r="E12">
-        <v>22.45400643041469</v>
+        <v>12.21718351683802</v>
       </c>
       <c r="F12">
-        <v>123.9149860541869</v>
+        <v>53.70299178736866</v>
       </c>
       <c r="G12">
-        <v>1.50370515984025</v>
+        <v>3.56886905940958</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>92.80825043299879</v>
+        <v>40.85782048778665</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>70.96908788820116</v>
+        <v>33.45482600384576</v>
       </c>
       <c r="N12">
-        <v>18.54329376977327</v>
+        <v>17.23143005434027</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.91036166458248</v>
+        <v>5.08157468284911</v>
       </c>
       <c r="D13">
-        <v>19.02658704750879</v>
+        <v>8.562925965197689</v>
       </c>
       <c r="E13">
-        <v>22.27790077739091</v>
+        <v>12.19244642744383</v>
       </c>
       <c r="F13">
-        <v>122.4227629121544</v>
+        <v>53.60066886503036</v>
       </c>
       <c r="G13">
-        <v>1.515467520918713</v>
+        <v>3.569399882602299</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>91.68739160437553</v>
+        <v>40.78642294895517</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>70.31494544084175</v>
+        <v>33.38723951403406</v>
       </c>
       <c r="N13">
-        <v>18.52765841538177</v>
+        <v>17.22069507189269</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.50958279919252</v>
+        <v>5.062923127339245</v>
       </c>
       <c r="D14">
-        <v>18.34475157706517</v>
+        <v>8.523897173468391</v>
       </c>
       <c r="E14">
-        <v>21.80407809735755</v>
+        <v>12.11139792237141</v>
       </c>
       <c r="F14">
-        <v>118.389411200833</v>
+        <v>53.26636483317075</v>
       </c>
       <c r="G14">
-        <v>1.546701688954342</v>
+        <v>3.571137103685611</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>88.65847586552499</v>
+        <v>40.55328540850653</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>68.51815968027786</v>
+        <v>33.16608022820268</v>
       </c>
       <c r="N14">
-        <v>18.46289855727168</v>
+        <v>17.18569126642279</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.30377468192238</v>
+        <v>5.051529000889976</v>
       </c>
       <c r="D15">
-        <v>17.99407911902866</v>
+        <v>8.50000678653052</v>
       </c>
       <c r="E15">
-        <v>21.55855456198098</v>
+        <v>12.06146558545316</v>
       </c>
       <c r="F15">
-        <v>116.2991390892703</v>
+        <v>53.06113465757269</v>
       </c>
       <c r="G15">
-        <v>1.562577480671693</v>
+        <v>3.572205894006631</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>87.08907046338237</v>
+        <v>40.41026067827924</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>67.57086375976846</v>
+        <v>33.03004467033102</v>
       </c>
       <c r="N15">
-        <v>18.41700035101573</v>
+        <v>17.16425521899438</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.385169656353302</v>
+        <v>4.986716543428313</v>
       </c>
       <c r="D16">
-        <v>16.42477296012846</v>
+        <v>8.363380850336904</v>
       </c>
       <c r="E16">
-        <v>20.42957901580382</v>
+        <v>11.77094461937706</v>
       </c>
       <c r="F16">
-        <v>106.8280837006023</v>
+        <v>51.87829985765489</v>
       </c>
       <c r="G16">
-        <v>1.631990381434677</v>
+        <v>3.57840309436571</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.97981468168086</v>
+        <v>39.5874718150685</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>63.14555847604539</v>
+        <v>32.24190380025227</v>
       </c>
       <c r="N16">
-        <v>18.11306646046217</v>
+        <v>17.04151712216982</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.934467421575924</v>
+        <v>4.94740361910584</v>
       </c>
       <c r="D17">
-        <v>15.65247070190733</v>
+        <v>8.279856218291583</v>
       </c>
       <c r="E17">
-        <v>19.84840996355448</v>
+        <v>11.58884934470143</v>
       </c>
       <c r="F17">
-        <v>102.1051990244905</v>
+        <v>51.14698900358683</v>
       </c>
       <c r="G17">
-        <v>1.665136454327102</v>
+        <v>3.582269987964083</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>76.43516283306776</v>
+        <v>39.08013497182735</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>60.85945259049759</v>
+        <v>31.75092164530349</v>
       </c>
       <c r="N17">
-        <v>17.90848991489066</v>
+        <v>16.96634590243813</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.696990500524823</v>
+        <v>4.924962917177181</v>
       </c>
       <c r="D18">
-        <v>15.24493792615207</v>
+        <v>8.231938517388771</v>
       </c>
       <c r="E18">
-        <v>19.53331744835722</v>
+        <v>11.48270659338423</v>
       </c>
       <c r="F18">
-        <v>99.59851132142452</v>
+        <v>50.72441124133292</v>
       </c>
       <c r="G18">
-        <v>1.682349907163772</v>
+        <v>3.584518252582381</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>74.55380339183685</v>
+        <v>38.7874813841529</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>59.62503723362487</v>
+        <v>31.46584295489365</v>
       </c>
       <c r="N18">
-        <v>17.78710450759618</v>
+        <v>16.92316816410098</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.619408606173799</v>
+        <v>4.917394886692421</v>
       </c>
       <c r="D19">
-        <v>15.11171030024531</v>
+        <v>8.215737206655714</v>
       </c>
       <c r="E19">
-        <v>19.42895541042497</v>
+        <v>11.44652854764335</v>
       </c>
       <c r="F19">
-        <v>98.77699984047634</v>
+        <v>50.58101317691084</v>
       </c>
       <c r="G19">
-        <v>1.687935190413937</v>
+        <v>3.585283639569809</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>73.93721482058805</v>
+        <v>38.68825852365664</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>59.2173259457633</v>
+        <v>31.36886730408951</v>
       </c>
       <c r="N19">
-        <v>17.74549930538337</v>
+        <v>16.90856025038814</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.979945560588703</v>
+        <v>4.951570992993675</v>
       </c>
       <c r="D20">
-        <v>15.73046812360349</v>
+        <v>8.288735158134584</v>
       </c>
       <c r="E20">
-        <v>19.90802520096151</v>
+        <v>11.60837962706958</v>
       </c>
       <c r="F20">
-        <v>102.583847147282</v>
+        <v>51.22504308035647</v>
       </c>
       <c r="G20">
-        <v>1.661820012213727</v>
+        <v>3.581855857716033</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>76.7944006268324</v>
+        <v>39.13423186022216</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>61.09350752649162</v>
+        <v>31.80346645200665</v>
       </c>
       <c r="N20">
-        <v>17.93068847203461</v>
+        <v>16.97434221896517</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.61718263339698</v>
+        <v>5.068395223967595</v>
       </c>
       <c r="D21">
-        <v>18.52794673572388</v>
+        <v>8.535357654649754</v>
       </c>
       <c r="E21">
-        <v>21.9317407126263</v>
+        <v>12.13526388131278</v>
       </c>
       <c r="F21">
-        <v>119.4772059395849</v>
+        <v>53.36465443855377</v>
       </c>
       <c r="G21">
-        <v>1.538356693002908</v>
+        <v>3.570625863022913</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>89.47528751155674</v>
+        <v>40.62181017734481</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>69.00682233220988</v>
+        <v>33.2311590123585</v>
       </c>
       <c r="N21">
-        <v>18.48351231623052</v>
+        <v>17.19597180442413</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.61718263339698</v>
+        <v>5.146129149037484</v>
       </c>
       <c r="D22">
-        <v>18.52794673572388</v>
+        <v>8.697294275360649</v>
       </c>
       <c r="E22">
-        <v>21.9317407126263</v>
+        <v>12.46677325482046</v>
       </c>
       <c r="F22">
-        <v>119.4772059395849</v>
+        <v>54.74282309321102</v>
       </c>
       <c r="G22">
-        <v>1.538356693002908</v>
+        <v>3.563496970760956</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>89.47528751155674</v>
+        <v>41.58439417687519</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>69.00682233220988</v>
+        <v>34.13895103719984</v>
       </c>
       <c r="N22">
-        <v>18.48351231623052</v>
+        <v>17.34106891038293</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.61718263339698</v>
+        <v>5.104521371439909</v>
       </c>
       <c r="D23">
-        <v>18.52794673572388</v>
+        <v>8.610812752639205</v>
       </c>
       <c r="E23">
-        <v>21.9317407126263</v>
+        <v>12.2910289828882</v>
       </c>
       <c r="F23">
-        <v>119.4772059395849</v>
+        <v>54.00924370812101</v>
       </c>
       <c r="G23">
-        <v>1.538356693002908</v>
+        <v>3.567282740572345</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>89.47528751155674</v>
+        <v>41.07162145076565</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>69.00682233220988</v>
+        <v>33.65682202394132</v>
       </c>
       <c r="N23">
-        <v>18.48351231623052</v>
+        <v>17.26361817016779</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.61718263339698</v>
+        <v>4.949686420770256</v>
       </c>
       <c r="D24">
-        <v>18.52794673572388</v>
+        <v>8.284720668687125</v>
       </c>
       <c r="E24">
-        <v>21.9317407126263</v>
+        <v>11.59955451078944</v>
       </c>
       <c r="F24">
-        <v>119.4772059395849</v>
+        <v>51.18976145674738</v>
       </c>
       <c r="G24">
-        <v>1.538356693002908</v>
+        <v>3.582043007661242</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>89.47528751155674</v>
+        <v>39.10977768187004</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>69.00682233220988</v>
+        <v>31.77971966975065</v>
       </c>
       <c r="N24">
-        <v>18.48351231623052</v>
+        <v>16.97072695911588</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.61718263339698</v>
+        <v>4.789292614536521</v>
       </c>
       <c r="D25">
-        <v>18.52794673572388</v>
+        <v>7.937923406987789</v>
       </c>
       <c r="E25">
-        <v>21.9317407126263</v>
+        <v>10.80019746726393</v>
       </c>
       <c r="F25">
-        <v>119.4772059395849</v>
+        <v>48.07626571390547</v>
       </c>
       <c r="G25">
-        <v>1.538356693002908</v>
+        <v>3.598889332182854</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>89.47528751155674</v>
+        <v>36.9627857486348</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>69.00682233220988</v>
+        <v>29.65374666888442</v>
       </c>
       <c r="N25">
-        <v>18.48351231623052</v>
+        <v>16.65720871355514</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_242/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.677597353611008</v>
+        <v>6.468587606327206</v>
       </c>
       <c r="D2">
-        <v>7.68875235114345</v>
+        <v>11.40050779039036</v>
       </c>
       <c r="E2">
-        <v>10.16783314414728</v>
+        <v>16.21439819367588</v>
       </c>
       <c r="F2">
-        <v>45.73989080449947</v>
+        <v>75.56368953963069</v>
       </c>
       <c r="G2">
-        <v>3.612113617510611</v>
+        <v>1.834942777376762</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.36832391276145</v>
+        <v>56.50298770602387</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>28.01105371695652</v>
+        <v>47.05269707022989</v>
       </c>
       <c r="N2">
-        <v>16.42988545052622</v>
+        <v>16.27046147666378</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.606229772817682</v>
+        <v>5.852105420358094</v>
       </c>
       <c r="D3">
-        <v>7.524750119889177</v>
+        <v>10.33038090952116</v>
       </c>
       <c r="E3">
-        <v>9.713450916160024</v>
+        <v>15.16869652765341</v>
       </c>
       <c r="F3">
-        <v>44.14010454934889</v>
+        <v>68.78427380035875</v>
       </c>
       <c r="G3">
-        <v>3.621599735080276</v>
+        <v>1.874160040495145</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.28672471946753</v>
+        <v>51.40266658113896</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>26.85581400791083</v>
+        <v>43.25981657651696</v>
       </c>
       <c r="N3">
-        <v>16.27876040176692</v>
+        <v>15.76263927424777</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.564646591805882</v>
+        <v>5.478490198543915</v>
       </c>
       <c r="D4">
-        <v>7.426791516403399</v>
+        <v>9.680436634272059</v>
       </c>
       <c r="E4">
-        <v>9.422364095997354</v>
+        <v>14.50741659594196</v>
       </c>
       <c r="F4">
-        <v>43.15394514143656</v>
+        <v>64.65718101733776</v>
       </c>
       <c r="G4">
-        <v>3.627686561525118</v>
+        <v>1.897263324040955</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.62488773166671</v>
+        <v>48.29426081821845</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.12835585874916</v>
+        <v>40.89427717272554</v>
       </c>
       <c r="N4">
-        <v>16.18766417315888</v>
+        <v>15.44497295616355</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.548277473316952</v>
+        <v>5.32637853785892</v>
       </c>
       <c r="D5">
-        <v>7.387612249035424</v>
+        <v>9.415520964568339</v>
       </c>
       <c r="E5">
-        <v>9.300817655920302</v>
+        <v>14.23234604142208</v>
       </c>
       <c r="F5">
-        <v>42.75178906880644</v>
+        <v>62.97387334605445</v>
       </c>
       <c r="G5">
-        <v>3.63023350432347</v>
+        <v>1.906523366544953</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.35619714780157</v>
+        <v>47.02549306913868</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.82779227178067</v>
+        <v>39.91663668665172</v>
       </c>
       <c r="N5">
-        <v>16.15100552222113</v>
+        <v>15.31432429514308</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.545594573661609</v>
+        <v>5.301103058589315</v>
       </c>
       <c r="D6">
-        <v>7.381152684156343</v>
+        <v>9.371484753852595</v>
       </c>
       <c r="E6">
-        <v>9.280461938983663</v>
+        <v>14.18631664096164</v>
       </c>
       <c r="F6">
-        <v>42.6850149334709</v>
+        <v>62.69402941190999</v>
       </c>
       <c r="G6">
-        <v>3.630660455359008</v>
+        <v>1.908053791311216</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.31165575458866</v>
+        <v>46.81450536597626</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.77764910394347</v>
+        <v>39.75336946583912</v>
       </c>
       <c r="N6">
-        <v>16.14494747966462</v>
+        <v>15.29256560668023</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.564423481482605</v>
+        <v>5.476439408504455</v>
       </c>
       <c r="D7">
-        <v>7.426260070411374</v>
+        <v>9.676866158895773</v>
       </c>
       <c r="E7">
-        <v>9.420736561274188</v>
+        <v>14.50373031947377</v>
       </c>
       <c r="F7">
-        <v>43.14852174825934</v>
+        <v>64.63449667567249</v>
       </c>
       <c r="G7">
-        <v>3.627720640457432</v>
+        <v>1.897388734675959</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.62125937568173</v>
+        <v>48.2771667774792</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.12431840657526</v>
+        <v>40.88115260810106</v>
       </c>
       <c r="N7">
-        <v>16.18716785466085</v>
+        <v>15.44321547882586</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.65253446241748</v>
+        <v>6.254224607196235</v>
       </c>
       <c r="D8">
-        <v>7.631666767706018</v>
+        <v>11.02873036102459</v>
       </c>
       <c r="E8">
-        <v>10.01373596848045</v>
+        <v>15.85725044371369</v>
       </c>
       <c r="F8">
-        <v>45.18948965783453</v>
+        <v>73.21128157865276</v>
       </c>
       <c r="G8">
-        <v>3.615330322932271</v>
+        <v>1.848732308523333</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.99517734597456</v>
+        <v>54.73390206140949</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>27.6167405737726</v>
+        <v>45.7493711181819</v>
       </c>
       <c r="N8">
-        <v>16.37744837869434</v>
+        <v>16.09675624295915</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.842373772579069</v>
+        <v>7.899623377477753</v>
       </c>
       <c r="D9">
-        <v>8.053916007398456</v>
+        <v>13.87355166916648</v>
       </c>
       <c r="E9">
-        <v>11.07643539354131</v>
+        <v>18.4247260111506</v>
       </c>
       <c r="F9">
-        <v>49.13320506520541</v>
+        <v>91.09790521680712</v>
       </c>
       <c r="G9">
-        <v>3.593088814300747</v>
+        <v>1.738838575246814</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>37.68904866262506</v>
+        <v>68.17291675781458</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>30.3826287433234</v>
+        <v>55.33112254678669</v>
       </c>
       <c r="N9">
-        <v>16.76236906561652</v>
+        <v>17.31655297515293</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.991225119916773</v>
+        <v>9.440506255636786</v>
       </c>
       <c r="D10">
-        <v>8.372927113883595</v>
+        <v>16.51949091742042</v>
       </c>
       <c r="E10">
-        <v>11.79153120623808</v>
+        <v>20.4995324977338</v>
       </c>
       <c r="F10">
-        <v>51.9614733099279</v>
+        <v>107.4046934067002</v>
       </c>
       <c r="G10">
-        <v>3.577965110024991</v>
+        <v>1.627878428548525</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>39.64524019996906</v>
+        <v>80.41258390823009</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>32.29756000234283</v>
+        <v>63.42109020194363</v>
       </c>
       <c r="N10">
-        <v>17.05010170269012</v>
+        <v>18.13576523750891</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.060742400457632</v>
+        <v>10.4684446519654</v>
       </c>
       <c r="D11">
-        <v>8.519327628435162</v>
+        <v>18.27468538781765</v>
       </c>
       <c r="E11">
-        <v>12.1018663754181</v>
+        <v>21.75515248325013</v>
       </c>
       <c r="F11">
-        <v>53.22714554536449</v>
+        <v>117.9725950654172</v>
       </c>
       <c r="G11">
-        <v>3.571341210393261</v>
+        <v>1.549884116236442</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>40.52594764776929</v>
+        <v>88.34550896707624</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>33.14009970385589</v>
+        <v>68.3301295422677</v>
       </c>
       <c r="N11">
-        <v>17.18159172904657</v>
+        <v>18.45440024408326</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.087305902042242</v>
+        <v>11.05996376867441</v>
       </c>
       <c r="D12">
-        <v>8.574899501854432</v>
+        <v>19.28072913399919</v>
       </c>
       <c r="E12">
-        <v>12.21718351683802</v>
+        <v>22.45400643041481</v>
       </c>
       <c r="F12">
-        <v>53.70299178736866</v>
+        <v>123.9149860541877</v>
       </c>
       <c r="G12">
-        <v>3.56886905940958</v>
+        <v>1.503705159840474</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>40.85782048778665</v>
+        <v>92.80825043299937</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>33.45482600384576</v>
+        <v>70.96908788820147</v>
       </c>
       <c r="N12">
-        <v>17.23143005434027</v>
+        <v>18.54329376977324</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.08157468284911</v>
+        <v>10.91036166458218</v>
       </c>
       <c r="D13">
-        <v>8.562925965197689</v>
+        <v>19.02658704750841</v>
       </c>
       <c r="E13">
-        <v>12.19244642744383</v>
+        <v>22.27790077739053</v>
       </c>
       <c r="F13">
-        <v>53.60066886503036</v>
+        <v>122.4227629121522</v>
       </c>
       <c r="G13">
-        <v>3.569399882602299</v>
+        <v>1.515467520918558</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>40.78642294895517</v>
+        <v>91.687391604374</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>33.38723951403406</v>
+        <v>70.31494544084092</v>
       </c>
       <c r="N13">
-        <v>17.22069507189269</v>
+        <v>18.52765841538182</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.062923127339245</v>
+        <v>10.50958279919251</v>
       </c>
       <c r="D14">
-        <v>8.523897173468391</v>
+        <v>18.3447515770653</v>
       </c>
       <c r="E14">
-        <v>12.11139792237141</v>
+        <v>21.80407809735756</v>
       </c>
       <c r="F14">
-        <v>53.26636483317075</v>
+        <v>118.3894112008332</v>
       </c>
       <c r="G14">
-        <v>3.571137103685611</v>
+        <v>1.546701688954198</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>40.55328540850653</v>
+        <v>88.65847586552512</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>33.16608022820268</v>
+        <v>68.51815968027795</v>
       </c>
       <c r="N14">
-        <v>17.18569126642279</v>
+        <v>18.46289855727165</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.051529000889976</v>
+        <v>10.30377468192223</v>
       </c>
       <c r="D15">
-        <v>8.50000678653052</v>
+        <v>17.99407911902836</v>
       </c>
       <c r="E15">
-        <v>12.06146558545316</v>
+        <v>21.55855456198062</v>
       </c>
       <c r="F15">
-        <v>53.06113465757269</v>
+        <v>116.2991390892685</v>
       </c>
       <c r="G15">
-        <v>3.572205894006631</v>
+        <v>1.562577480671637</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>40.41026067827924</v>
+        <v>87.08907046338106</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>33.03004467033102</v>
+        <v>67.57086375976775</v>
       </c>
       <c r="N15">
-        <v>17.16425521899438</v>
+        <v>18.41700035101577</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.986716543428313</v>
+        <v>9.385169656353369</v>
       </c>
       <c r="D16">
-        <v>8.363380850336904</v>
+        <v>16.42477296012844</v>
       </c>
       <c r="E16">
-        <v>11.77094461937706</v>
+        <v>20.42957901580388</v>
       </c>
       <c r="F16">
-        <v>51.87829985765489</v>
+        <v>106.8280837006024</v>
       </c>
       <c r="G16">
-        <v>3.57840309436571</v>
+        <v>1.631990381434671</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>39.5874718150685</v>
+        <v>79.97981468168093</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>32.24190380025227</v>
+        <v>63.14555847604545</v>
       </c>
       <c r="N16">
-        <v>17.04151712216982</v>
+        <v>18.11306646046219</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.94740361910584</v>
+        <v>8.934467421575926</v>
       </c>
       <c r="D17">
-        <v>8.279856218291583</v>
+        <v>15.65247070190741</v>
       </c>
       <c r="E17">
-        <v>11.58884934470143</v>
+        <v>19.84840996355463</v>
       </c>
       <c r="F17">
-        <v>51.14698900358683</v>
+        <v>102.1051990244911</v>
       </c>
       <c r="G17">
-        <v>3.582269987964083</v>
+        <v>1.665136454327044</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>39.08013497182735</v>
+        <v>76.43516283306816</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>31.75092164530349</v>
+        <v>60.85945259049779</v>
       </c>
       <c r="N17">
-        <v>16.96634590243813</v>
+        <v>17.90848991489063</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.924962917177181</v>
+        <v>8.696990500524688</v>
       </c>
       <c r="D18">
-        <v>8.231938517388771</v>
+        <v>15.24493792615208</v>
       </c>
       <c r="E18">
-        <v>11.48270659338423</v>
+        <v>19.53331744835719</v>
       </c>
       <c r="F18">
-        <v>50.72441124133292</v>
+        <v>99.59851132142458</v>
       </c>
       <c r="G18">
-        <v>3.584518252582381</v>
+        <v>1.682349907163719</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.7874813841529</v>
+        <v>74.55380339183695</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>31.46584295489365</v>
+        <v>59.62503723362491</v>
       </c>
       <c r="N18">
-        <v>16.92316816410098</v>
+        <v>17.78710450759617</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.917394886692421</v>
+        <v>8.619408606173746</v>
       </c>
       <c r="D19">
-        <v>8.215737206655714</v>
+        <v>15.11171030024543</v>
       </c>
       <c r="E19">
-        <v>11.44652854764335</v>
+        <v>19.42895541042494</v>
       </c>
       <c r="F19">
-        <v>50.58101317691084</v>
+        <v>98.77699984047628</v>
       </c>
       <c r="G19">
-        <v>3.585283639569809</v>
+        <v>1.687935190414171</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.68825852365664</v>
+        <v>73.93721482058805</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>31.36886730408951</v>
+        <v>59.21732594576332</v>
       </c>
       <c r="N19">
-        <v>16.90856025038814</v>
+        <v>17.74549930538337</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.951570992993675</v>
+        <v>8.979945560588833</v>
       </c>
       <c r="D20">
-        <v>8.288735158134584</v>
+        <v>15.73046812360381</v>
       </c>
       <c r="E20">
-        <v>11.60837962706958</v>
+        <v>19.90802520096179</v>
       </c>
       <c r="F20">
-        <v>51.22504308035647</v>
+        <v>102.5838471472831</v>
       </c>
       <c r="G20">
-        <v>3.581855857716033</v>
+        <v>1.661820012213628</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>39.13423186022216</v>
+        <v>76.79440062683321</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>31.80346645200665</v>
+        <v>61.09350752649205</v>
       </c>
       <c r="N20">
-        <v>16.97434221896517</v>
+        <v>17.93068847203459</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.068395223967595</v>
+        <v>10.61718263339717</v>
       </c>
       <c r="D21">
-        <v>8.535357654649754</v>
+        <v>18.52794673572424</v>
       </c>
       <c r="E21">
-        <v>12.13526388131278</v>
+        <v>21.93174071262655</v>
       </c>
       <c r="F21">
-        <v>53.36465443855377</v>
+        <v>119.4772059395862</v>
       </c>
       <c r="G21">
-        <v>3.570625863022913</v>
+        <v>1.538356693003033</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>40.62181017734481</v>
+        <v>89.47528751155777</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>33.2311590123585</v>
+        <v>69.00682233221042</v>
       </c>
       <c r="N21">
-        <v>17.19597180442413</v>
+        <v>18.48351231623048</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.146129149037484</v>
+        <v>10.61718263339717</v>
       </c>
       <c r="D22">
-        <v>8.697294275360649</v>
+        <v>18.52794673572424</v>
       </c>
       <c r="E22">
-        <v>12.46677325482046</v>
+        <v>21.93174071262655</v>
       </c>
       <c r="F22">
-        <v>54.74282309321102</v>
+        <v>119.4772059395862</v>
       </c>
       <c r="G22">
-        <v>3.563496970760956</v>
+        <v>1.538356693003033</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>41.58439417687519</v>
+        <v>89.47528751155777</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>34.13895103719984</v>
+        <v>69.00682233221042</v>
       </c>
       <c r="N22">
-        <v>17.34106891038293</v>
+        <v>18.48351231623048</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.104521371439909</v>
+        <v>10.61718263339717</v>
       </c>
       <c r="D23">
-        <v>8.610812752639205</v>
+        <v>18.52794673572424</v>
       </c>
       <c r="E23">
-        <v>12.2910289828882</v>
+        <v>21.93174071262655</v>
       </c>
       <c r="F23">
-        <v>54.00924370812101</v>
+        <v>119.4772059395862</v>
       </c>
       <c r="G23">
-        <v>3.567282740572345</v>
+        <v>1.538356693003033</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>41.07162145076565</v>
+        <v>89.47528751155777</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>33.65682202394132</v>
+        <v>69.00682233221042</v>
       </c>
       <c r="N23">
-        <v>17.26361817016779</v>
+        <v>18.48351231623048</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.949686420770256</v>
+        <v>10.61718263339717</v>
       </c>
       <c r="D24">
-        <v>8.284720668687125</v>
+        <v>18.52794673572424</v>
       </c>
       <c r="E24">
-        <v>11.59955451078944</v>
+        <v>21.93174071262655</v>
       </c>
       <c r="F24">
-        <v>51.18976145674738</v>
+        <v>119.4772059395862</v>
       </c>
       <c r="G24">
-        <v>3.582043007661242</v>
+        <v>1.538356693003033</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>39.10977768187004</v>
+        <v>89.47528751155777</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>31.77971966975065</v>
+        <v>69.00682233221042</v>
       </c>
       <c r="N24">
-        <v>16.97072695911588</v>
+        <v>18.48351231623048</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.789292614536521</v>
+        <v>10.61718263339717</v>
       </c>
       <c r="D25">
-        <v>7.937923406987789</v>
+        <v>18.52794673572424</v>
       </c>
       <c r="E25">
-        <v>10.80019746726393</v>
+        <v>21.93174071262655</v>
       </c>
       <c r="F25">
-        <v>48.07626571390547</v>
+        <v>119.4772059395862</v>
       </c>
       <c r="G25">
-        <v>3.598889332182854</v>
+        <v>1.538356693003033</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.9627857486348</v>
+        <v>89.47528751155777</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>29.65374666888442</v>
+        <v>69.00682233221042</v>
       </c>
       <c r="N25">
-        <v>16.65720871355514</v>
+        <v>18.48351231623048</v>
       </c>
       <c r="O25">
         <v>0</v>
